--- a/private/buglist.xlsx
+++ b/private/buglist.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WebApps\lol\private\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\LolVvv\Assets\private\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -526,7 +526,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -647,20 +649,20 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>43038</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -685,20 +687,20 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>43038</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>26</v>
       </c>
     </row>
